--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="151">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,109 +55,127 @@
     <t>died</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -169,18 +187,18 @@
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -202,216 +220,216 @@
     <t>treat</t>
   </si>
   <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>purchases</t>
+  </si>
+  <si>
+    <t>cope</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>selling</t>
+  </si>
+  <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>major</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>survival</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>purchases</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>manage</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>agreed</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>local</t>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -421,19 +439,13 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -812,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS93"/>
+  <dimension ref="A1:BS92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,28 +832,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AB1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AT1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BC1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BL1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -1043,13 +1055,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01407835989498069</v>
+        <v>0.01308523191288043</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1061,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.006710118694896212</v>
+        <v>0.007171822754515875</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1085,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01584060282863849</v>
+        <v>0.08170840689640138</v>
       </c>
       <c r="U3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1109,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AC3">
-        <v>0.02798997872286386</v>
+        <v>0.03637164376556032</v>
       </c>
       <c r="AD3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1133,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.01841618865475375</v>
+        <v>0.05690812421687155</v>
       </c>
       <c r="AM3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1157,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AU3">
-        <v>0.0211213628169262</v>
+        <v>0.02641710435893147</v>
       </c>
       <c r="AV3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1181,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.02253712597653817</v>
+        <v>0.04572745317689601</v>
       </c>
       <c r="BE3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BF3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1205,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="BM3">
-        <v>0.01817648926339837</v>
+        <v>0.02204302119711026</v>
       </c>
       <c r="BN3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BO3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1229,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1237,13 +1249,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.005519373847130817</v>
+        <v>0.005029926026085954</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1255,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.005363989928798133</v>
+        <v>0.004912659891065228</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1279,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.006462855449025025</v>
+        <v>0.04098825170557335</v>
       </c>
       <c r="U4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1303,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AC4">
-        <v>0.02381133020531772</v>
+        <v>0.02657760319698451</v>
       </c>
       <c r="AD4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1327,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.00784179009794733</v>
+        <v>0.033925971079278</v>
       </c>
       <c r="AM4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1351,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AU4">
-        <v>0.01864248080317926</v>
+        <v>0.02039698311031574</v>
       </c>
       <c r="AV4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1375,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.01004808553622302</v>
+        <v>0.0307420946092015</v>
       </c>
       <c r="BE4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1399,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BM4">
-        <v>0.01642637087434089</v>
+        <v>0.01768118229358391</v>
       </c>
       <c r="BN4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BO4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1423,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1431,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003629980153734617</v>
+        <v>0.00407899080815277</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1449,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.004048648866091321</v>
+        <v>0.00449779058099908</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1473,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004072958847008527</v>
+        <v>0.03522962575470259</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1497,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AC5">
-        <v>0.02001938828047366</v>
+        <v>0.02525543517466802</v>
       </c>
       <c r="AD5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1521,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.004720389244870395</v>
+        <v>0.03003013986250804</v>
       </c>
       <c r="AM5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1545,67 +1557,67 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AU5">
-        <v>0.01656975473211148</v>
+        <v>0.01987317138047613</v>
       </c>
       <c r="AV5">
+        <v>9</v>
+      </c>
+      <c r="AW5">
+        <v>9</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>0.02768606410785528</v>
+      </c>
+      <c r="BE5">
         <v>8</v>
       </c>
-      <c r="AW5">
+      <c r="BF5">
         <v>8</v>
       </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
         <v>11</v>
       </c>
-      <c r="BD5">
-        <v>0.006048247484768748</v>
-      </c>
-      <c r="BE5">
-        <v>6</v>
-      </c>
-      <c r="BF5">
-        <v>6</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
       <c r="BL5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BM5">
-        <v>0.01509074720788055</v>
+        <v>0.01750817301410496</v>
       </c>
       <c r="BN5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1617,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1625,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003229469704965187</v>
+        <v>0.003215329960303984</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1646,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.004043517582192777</v>
+        <v>0.004052118552079615</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -1667,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.003816715075757596</v>
+        <v>0.03139780727565988</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1694,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AC6">
-        <v>0.01995493718168998</v>
+        <v>0.02340273374285264</v>
       </c>
       <c r="AD6">
         <v>8</v>
@@ -1715,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004674996771531116</v>
+        <v>0.02822987571539842</v>
       </c>
       <c r="AM6">
         <v>6</v>
@@ -1742,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AU6">
-        <v>0.01650206207499829</v>
+        <v>0.0187825158840669</v>
       </c>
       <c r="AV6">
         <v>8</v>
@@ -1763,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.005756277881449385</v>
+        <v>0.02680168229074543</v>
       </c>
       <c r="BE6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1787,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BM6">
-        <v>0.01502166475411436</v>
+        <v>0.01675236498360407</v>
       </c>
       <c r="BN6">
         <v>8</v>
@@ -1811,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1819,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002305297993861264</v>
+        <v>0.002295197461224116</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1840,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.003582834997730149</v>
+        <v>0.003596178950209043</v>
       </c>
       <c r="L7">
         <v>7</v>
@@ -1861,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.002719261168821687</v>
+        <v>0.02631923102072843</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1888,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AC7">
-        <v>0.01841166844534602</v>
+        <v>0.02137318784120429</v>
       </c>
       <c r="AD7">
         <v>7</v>
@@ -1909,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.00332428427068692</v>
+        <v>0.02507365640556741</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1936,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AU7">
-        <v>0.01551781853715186</v>
+        <v>0.01750291246546781</v>
       </c>
       <c r="AV7">
         <v>7</v>
@@ -1957,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.004292321233671294</v>
+        <v>0.0245121160308944</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1984,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BM7">
-        <v>0.01427709956564076</v>
+        <v>0.01580229070276255</v>
       </c>
       <c r="BN7">
         <v>7</v>
@@ -2005,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -2013,7 +2025,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002274510290469998</v>
+        <v>0.002290063674748563</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2031,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.003137546264963151</v>
+        <v>0.00359104516373349</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2061,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.002573019577713175</v>
+        <v>0.02620588940473855</v>
       </c>
       <c r="U8">
         <v>4</v>
@@ -2079,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AC8">
-        <v>0.0170617530053531</v>
+        <v>0.02128476560628781</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2109,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.003009302382145511</v>
+        <v>0.02495038775441092</v>
       </c>
       <c r="AM8">
         <v>4</v>
@@ -2127,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AU8">
-        <v>0.01473665297064501</v>
+        <v>0.01740843850437288</v>
       </c>
       <c r="AV8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2157,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.003707354869237249</v>
+        <v>0.0243843719906452</v>
       </c>
       <c r="BE8">
         <v>4</v>
@@ -2175,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BM8">
-        <v>0.01373978173846572</v>
+        <v>0.01570515757759223</v>
       </c>
       <c r="BN8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2207,13 +2219,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.001843212138309302</v>
+        <v>0.002264394742370799</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2225,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.002246968799429159</v>
+        <v>0.00224889529049954</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2255,13 +2267,13 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.002170534215353732</v>
+        <v>0.02563918132478911</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2273,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC9">
-        <v>0.01436192212536725</v>
+        <v>0.01563823907592518</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2303,13 +2315,13 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.002648928020264822</v>
+        <v>0.02433404449862847</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2321,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AU9">
-        <v>0.01317432183763131</v>
+        <v>0.01404199805405027</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2351,13 +2363,13 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.003414358108122567</v>
+        <v>0.02374565178939921</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2369,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BM9">
-        <v>0.01266514608411566</v>
+        <v>0.01334060036091925</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2401,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.001843212138309302</v>
+        <v>0.001835131211684182</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2422,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.002246968799429159</v>
+        <v>0.00224889529049954</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2449,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002170534215353732</v>
+        <v>0.02377994289326271</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2470,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC10">
-        <v>0.01436192212536725</v>
+        <v>0.01563823907592518</v>
       </c>
       <c r="AD10">
         <v>4</v>
@@ -2497,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.002648928020264822</v>
+        <v>0.0234955467506519</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2518,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU10">
-        <v>0.01317432183763131</v>
+        <v>0.01404199805405027</v>
       </c>
       <c r="AV10">
         <v>4</v>
@@ -2545,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.003414358108122567</v>
+        <v>0.02336733290096889</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2566,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BM10">
-        <v>0.01266514608411566</v>
+        <v>0.01334060036091925</v>
       </c>
       <c r="BN10">
         <v>4</v>
@@ -2595,7 +2607,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.001838080854410758</v>
+        <v>0.001835131211684182</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2613,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.002231574947733527</v>
+        <v>0.002233493931072882</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -2643,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002146160616835647</v>
+        <v>0.02377994289326271</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -2661,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AC11">
-        <v>0.01416856882901621</v>
+        <v>0.01537297237117573</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -2691,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.002596431038841254</v>
+        <v>0.0234955467506519</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -2709,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AU11">
-        <v>0.01297124386629174</v>
+        <v>0.01375857617076546</v>
       </c>
       <c r="AV11">
         <v>4</v>
@@ -2739,7 +2751,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.003316863714050226</v>
+        <v>0.02336733290096889</v>
       </c>
       <c r="BE11">
         <v>3</v>
@@ -2757,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BM11">
-        <v>0.01245789872281708</v>
+        <v>0.01304920098540829</v>
       </c>
       <c r="BN11">
         <v>4</v>
@@ -2789,7 +2801,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.001807293151019492</v>
+        <v>0.001835131211684182</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2807,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.001796548782763618</v>
+        <v>0.001798089475104521</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -2837,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.001999919025727135</v>
+        <v>0.02377994289326271</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -2855,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AC12">
-        <v>0.01294755558659064</v>
+        <v>0.01369711540919331</v>
       </c>
       <c r="AD12">
         <v>3</v>
@@ -2885,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.002281449150299846</v>
+        <v>0.0234955467506519</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -2903,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AU12">
-        <v>0.01232546361401127</v>
+        <v>0.01285686859654611</v>
       </c>
       <c r="AV12">
         <v>3</v>
@@ -2933,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.002731897349616181</v>
+        <v>0.02336733290096889</v>
       </c>
       <c r="BE12">
         <v>3</v>
@@ -2951,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BM12">
-        <v>0.01205874580317443</v>
+        <v>0.01248765920524805</v>
       </c>
       <c r="BN12">
         <v>3</v>
@@ -2983,13 +2995,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00138112628275734</v>
+        <v>0.001829997425208629</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3001,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.001796548782763618</v>
+        <v>0.001798089475104521</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -3031,13 +3043,13 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.001621807261885778</v>
+        <v>0.02366660127727282</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -3049,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AC13">
-        <v>0.01294755558659064</v>
+        <v>0.01369711540919331</v>
       </c>
       <c r="AD13">
         <v>3</v>
@@ -3079,13 +3091,13 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.001973571769842725</v>
+        <v>0.02337227809949541</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3097,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AU13">
-        <v>0.01232546361401127</v>
+        <v>0.01285686859654611</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3127,13 +3139,13 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.00253639498257384</v>
+        <v>0.02323958886071969</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3145,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BM13">
-        <v>0.01205874580317443</v>
+        <v>0.01248765920524805</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3177,13 +3189,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00138112628275734</v>
+        <v>0.001799194706355312</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3195,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.001796548782763618</v>
+        <v>0.001798089475104521</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3225,13 +3237,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.001621807261885778</v>
+        <v>0.0229865515813335</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3243,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AC14">
-        <v>0.01294755558659064</v>
+        <v>0.01369711540919331</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3273,13 +3285,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.001973571769842725</v>
+        <v>0.02263266619255647</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3291,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AU14">
-        <v>0.01232546361401127</v>
+        <v>0.01285686859654611</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3321,13 +3333,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.00253639498257384</v>
+        <v>0.02247312461922449</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3339,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="BM14">
-        <v>0.01205874580317443</v>
+        <v>0.01248765920524805</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3371,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001375994998858796</v>
+        <v>0.001375064962144248</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3389,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.001791417498865074</v>
+        <v>0.001792955688628969</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3419,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.001597433663367692</v>
+        <v>0.02124065476579698</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3437,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AC15">
-        <v>0.01288310448780696</v>
+        <v>0.01360869317427683</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3467,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.001921074788419157</v>
+        <v>0.0219174370957364</v>
       </c>
       <c r="AM15">
         <v>2</v>
@@ -3485,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AU15">
-        <v>0.01225777095689808</v>
+        <v>0.01276239463545117</v>
       </c>
       <c r="AV15">
         <v>3</v>
@@ -3515,7 +3527,7 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.002438900588501499</v>
+        <v>0.02222254977104337</v>
       </c>
       <c r="BE15">
         <v>2</v>
@@ -3533,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BM15">
-        <v>0.01198966334940824</v>
+        <v>0.01239052608007773</v>
       </c>
       <c r="BN15">
         <v>3</v>
@@ -3565,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001375994998858796</v>
+        <v>0.001375064962144248</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3583,19 +3595,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.001791417498865074</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3607,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.001597433663367692</v>
+        <v>0.02124065476579698</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3631,19 +3643,19 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AC16">
-        <v>0.01288310448780696</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3655,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.001921074788419157</v>
+        <v>0.0219174370957364</v>
       </c>
       <c r="AM16">
         <v>2</v>
@@ -3679,19 +3691,19 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AU16">
-        <v>0.01225777095689808</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -3703,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.002438900588501499</v>
+        <v>0.02222254977104337</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -3727,19 +3739,19 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BM16">
-        <v>0.01198966334940824</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>1</v>
@@ -3751,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3759,7 +3771,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001365732431061708</v>
+        <v>0.001375064962144248</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3777,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.00178628621496653</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3801,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.001548686466331522</v>
+        <v>0.02124065476579698</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3825,19 +3837,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AC17">
-        <v>0.01281865338902329</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -3849,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.00181608082557202</v>
+        <v>0.0219174370957364</v>
       </c>
       <c r="AM17">
         <v>2</v>
@@ -3873,19 +3885,19 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AU17">
-        <v>0.01219007829978489</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX17">
         <v>1</v>
@@ -3897,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.002243911800356818</v>
+        <v>0.02222254977104337</v>
       </c>
       <c r="BE17">
         <v>2</v>
@@ -3921,19 +3933,19 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BM17">
-        <v>0.01192058089564205</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP17">
         <v>1</v>
@@ -3945,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3953,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001365732431061708</v>
+        <v>0.001369931175668696</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3971,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.001346128766098078</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -4001,7 +4013,7 @@
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001548686466331522</v>
+        <v>0.0211273131498071</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -4019,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AC18">
-        <v>0.01153318904781404</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -4049,7 +4061,7 @@
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.00181608082557202</v>
+        <v>0.0217941684445799</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -4067,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AU18">
-        <v>0.01147660539039123</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4097,7 +4109,7 @@
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.002243911800356818</v>
+        <v>0.02209480573079417</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4115,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BM18">
-        <v>0.01145234552223321</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4147,7 +4159,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001350338579366075</v>
+        <v>0.001369931175668696</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4165,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.001346128766098078</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4195,7 +4207,7 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001475565670777266</v>
+        <v>0.0211273131498071</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4213,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AC19">
-        <v>0.01153318904781404</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4243,7 +4255,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001658589881301316</v>
+        <v>0.0217941684445799</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4261,13 +4273,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AU19">
-        <v>0.01147660539039123</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4291,7 +4303,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.001951428618139795</v>
+        <v>0.02209480573079417</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4309,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BM19">
-        <v>0.01145234552223321</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4341,13 +4353,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0009190404272053789</v>
+        <v>0.00135966360271759</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4359,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.001346128766098078</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4389,13 +4401,13 @@
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001073080308417823</v>
+        <v>0.02090062991782732</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4407,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AC20">
-        <v>0.01153318904781404</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4437,13 +4449,13 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001298215519420627</v>
+        <v>0.02154763114226692</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4455,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AU20">
-        <v>0.01147660539039123</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4485,13 +4497,13 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.001658431857025113</v>
+        <v>0.02183931765029578</v>
       </c>
       <c r="BE20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4503,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BM20">
-        <v>0.01145234552223321</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4535,13 +4547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009190404272053789</v>
+        <v>0.00135966360271759</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4553,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.001346128766098078</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4583,13 +4595,13 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001073080308417823</v>
+        <v>0.02090062991782732</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -4601,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AC21">
-        <v>0.01153318904781404</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4631,13 +4643,13 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001298215519420627</v>
+        <v>0.02154763114226692</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4649,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AU21">
-        <v>0.01147660539039123</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV21">
         <v>2</v>
@@ -4679,13 +4691,13 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.001658431857025113</v>
+        <v>0.02183931765029578</v>
       </c>
       <c r="BE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4697,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="BM21">
-        <v>0.01145234552223321</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN21">
         <v>2</v>
@@ -4729,7 +4741,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0009190404272053789</v>
+        <v>0.0009201324990798675</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4747,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.001346128766098078</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4777,7 +4789,7 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001073080308417823</v>
+        <v>0.01881470825432114</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4795,13 +4807,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AC22">
-        <v>0.01153318904781404</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4825,7 +4837,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001298215519420627</v>
+        <v>0.02046259609197738</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4843,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AU22">
-        <v>0.01147660539039123</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV22">
         <v>2</v>
@@ -4873,7 +4885,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.001658431857025113</v>
+        <v>0.02120551068136706</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4891,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BM22">
-        <v>0.01145234552223321</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4923,7 +4935,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4944,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.001346128766098078</v>
+        <v>0.001347283659709503</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -4971,7 +4983,7 @@
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4992,10 +5004,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AC23">
-        <v>0.01153318904781404</v>
+        <v>0.01175599174246145</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -5019,7 +5031,7 @@
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -5040,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AU23">
-        <v>0.01147660539039123</v>
+        <v>0.01167173913904195</v>
       </c>
       <c r="AV23">
         <v>2</v>
@@ -5067,7 +5079,7 @@
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -5088,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BM23">
-        <v>0.01145234552223321</v>
+        <v>0.01163471804957684</v>
       </c>
       <c r="BN23">
         <v>2</v>
@@ -5117,7 +5129,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5138,10 +5150,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.001340997482199533</v>
+        <v>0.00134214987323395</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -5165,7 +5177,7 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5186,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC24">
-        <v>0.01146873794903036</v>
+        <v>0.01166756950754497</v>
       </c>
       <c r="AD24">
         <v>2</v>
@@ -5213,7 +5225,7 @@
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5234,10 +5246,10 @@
         <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AU24">
-        <v>0.01140891273327804</v>
+        <v>0.01157726517794701</v>
       </c>
       <c r="AV24">
         <v>2</v>
@@ -5261,7 +5273,7 @@
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5282,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BM24">
-        <v>0.01138326306846702</v>
+        <v>0.01153758492440652</v>
       </c>
       <c r="BN24">
         <v>2</v>
@@ -5311,7 +5323,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5332,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.001330734914402445</v>
+        <v>0.001337016086758397</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -5353,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5380,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AC25">
-        <v>0.011339835751463</v>
+        <v>0.01157914727262848</v>
       </c>
       <c r="AD25">
         <v>2</v>
@@ -5401,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5428,10 +5440,10 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AU25">
-        <v>0.01127352741905165</v>
+        <v>0.01148279121685208</v>
       </c>
       <c r="AV25">
         <v>2</v>
@@ -5449,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5476,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="BM25">
-        <v>0.01124509816093463</v>
+        <v>0.0114404517992362</v>
       </c>
       <c r="BN25">
         <v>2</v>
@@ -5497,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5505,7 +5517,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5526,16 +5538,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.0013256036305039</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -5547,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5574,16 +5586,16 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AC26">
-        <v>0.01127538465267932</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -5595,13 +5607,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5622,16 +5634,16 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AU26">
-        <v>0.01120583476193846</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>1</v>
@@ -5643,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5670,16 +5682,16 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BM26">
-        <v>0.01117601570716844</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP26">
         <v>1</v>
@@ -5691,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5699,7 +5711,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5720,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5747,7 +5759,7 @@
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5768,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AC27">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5795,7 +5807,7 @@
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5816,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AU27">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5843,7 +5855,7 @@
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5864,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="BM27">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5893,7 +5905,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5914,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5941,7 +5953,7 @@
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5962,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AC28">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5989,7 +6001,7 @@
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -6010,10 +6022,10 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AU28">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -6037,7 +6049,7 @@
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -6058,10 +6070,10 @@
         <v>0</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BM28">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -6087,7 +6099,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6108,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6135,7 +6147,7 @@
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6156,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AC29">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6183,7 +6195,7 @@
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6204,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AU29">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6231,7 +6243,7 @@
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6252,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BM29">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6281,7 +6293,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6302,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6329,7 +6341,7 @@
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6350,10 +6362,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AC30">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6377,7 +6389,7 @@
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6398,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AU30">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6425,7 +6437,7 @@
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6446,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BM30">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6475,7 +6487,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0009190404272053789</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6496,10 +6508,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6523,7 +6535,7 @@
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001073080308417823</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6544,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AC31">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6571,7 +6583,7 @@
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001298215519420627</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6592,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AU31">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6619,7 +6631,7 @@
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001658431857025113</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6640,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="BM31">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6669,7 +6681,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0009139091433068346</v>
+        <v>0.0009149987126043146</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6687,13 +6699,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6717,7 +6729,7 @@
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001048706709899738</v>
+        <v>0.01870136663833126</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6735,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AC32">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6765,7 +6777,7 @@
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001245718537997059</v>
+        <v>0.02033932744082089</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6783,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AU32">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6813,7 +6825,7 @@
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001560937462952772</v>
+        <v>0.02107776664111786</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6831,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BM32">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6863,7 +6875,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0009139091433068346</v>
+        <v>0.0009098649261287617</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6884,10 +6896,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6911,7 +6923,7 @@
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001048706709899738</v>
+        <v>0.01858802502234137</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6932,10 +6944,10 @@
         <v>1</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AC33">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6959,7 +6971,7 @@
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001245718537997059</v>
+        <v>0.0202160587896644</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6980,10 +6992,10 @@
         <v>1</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AU33">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -7007,7 +7019,7 @@
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001560937462952772</v>
+        <v>0.02095002260086866</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -7028,10 +7040,10 @@
         <v>1</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="BM33">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -7057,7 +7069,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0009139091433068346</v>
+        <v>0.0009098649261287617</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7078,10 +7090,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7105,7 +7117,7 @@
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001048706709899738</v>
+        <v>0.01858802502234137</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7126,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AC34">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7153,7 +7165,7 @@
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001245718537997059</v>
+        <v>0.0202160587896644</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7174,10 +7186,10 @@
         <v>1</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AU34">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7201,7 +7213,7 @@
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001560937462952772</v>
+        <v>0.02095002260086866</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7222,10 +7234,10 @@
         <v>1</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BM34">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7251,7 +7263,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009139091433068346</v>
+        <v>0.0009098649261287617</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7272,10 +7284,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7299,7 +7311,7 @@
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001048706709899738</v>
+        <v>0.01858802502234137</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7320,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AC35">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7347,7 +7359,7 @@
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001245718537997059</v>
+        <v>0.0202160587896644</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7368,10 +7380,10 @@
         <v>1</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AU35">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7395,7 +7407,7 @@
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001560937462952772</v>
+        <v>0.02095002260086866</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7416,10 +7428,10 @@
         <v>1</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="BM35">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7445,7 +7457,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0009139091433068346</v>
+        <v>0.0009098649261287617</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7466,10 +7478,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7493,7 +7505,7 @@
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.001048706709899738</v>
+        <v>0.01858802502234137</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7514,10 +7526,10 @@
         <v>1</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AC36">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7541,7 +7553,7 @@
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.001245718537997059</v>
+        <v>0.0202160587896644</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7562,10 +7574,10 @@
         <v>1</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AU36">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7589,7 +7601,7 @@
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.001560937462952772</v>
+        <v>0.02095002260086866</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7610,10 +7622,10 @@
         <v>1</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="BM36">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7639,7 +7651,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0009139091433068346</v>
+        <v>0.0009098649261287617</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7660,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7687,7 +7699,7 @@
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.001048706709899738</v>
+        <v>0.01858802502234137</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7708,10 +7720,10 @@
         <v>1</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AC37">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7735,7 +7747,7 @@
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.001245718537997059</v>
+        <v>0.0202160587896644</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7756,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AU37">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7783,7 +7795,7 @@
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.001560937462952772</v>
+        <v>0.02095002260086866</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7804,10 +7816,10 @@
         <v>1</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="BM37">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7833,7 +7845,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0009139091433068346</v>
+        <v>0.0009047311396532088</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7851,13 +7863,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7881,7 +7893,7 @@
         <v>43</v>
       </c>
       <c r="T38">
-        <v>0.001048706709899738</v>
+        <v>0.01847468340635148</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7899,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC38">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7929,7 +7941,7 @@
         <v>43</v>
       </c>
       <c r="AL38">
-        <v>0.001245718537997059</v>
+        <v>0.02009279013850791</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7947,13 +7959,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AU38">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7977,7 +7989,7 @@
         <v>43</v>
       </c>
       <c r="BD38">
-        <v>0.001560937462952772</v>
+        <v>0.02082227856061946</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7995,13 +8007,13 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="BM38">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -8027,7 +8039,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0009139091433068346</v>
+        <v>0.0009047311396532088</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8045,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8075,7 +8087,7 @@
         <v>44</v>
       </c>
       <c r="T39">
-        <v>0.001048706709899738</v>
+        <v>0.01847468340635148</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -8093,13 +8105,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AC39">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8123,7 +8135,7 @@
         <v>44</v>
       </c>
       <c r="AL39">
-        <v>0.001245718537997059</v>
+        <v>0.02009279013850791</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -8141,13 +8153,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AU39">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8171,7 +8183,7 @@
         <v>44</v>
       </c>
       <c r="BD39">
-        <v>0.001560937462952772</v>
+        <v>0.02082227856061946</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -8189,13 +8201,13 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BM39">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8221,7 +8233,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0009087778594082905</v>
+        <v>0.0008995973531776559</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8239,13 +8251,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8269,7 +8281,7 @@
         <v>45</v>
       </c>
       <c r="T40">
-        <v>0.001024333111381653</v>
+        <v>0.0183613417903616</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -8287,13 +8299,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AC40">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8317,7 +8329,7 @@
         <v>45</v>
       </c>
       <c r="AL40">
-        <v>0.001193221556573491</v>
+        <v>0.01996952148735142</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -8335,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AU40">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8365,7 +8377,7 @@
         <v>45</v>
       </c>
       <c r="BD40">
-        <v>0.001463443068880431</v>
+        <v>0.02069453452037026</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8383,13 +8395,13 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="BM40">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8415,7 +8427,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0008985152916112019</v>
+        <v>0.0008995973531776559</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8433,13 +8445,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8463,7 +8475,7 @@
         <v>46</v>
       </c>
       <c r="T41">
-        <v>0.0009755859143454826</v>
+        <v>0.0183613417903616</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8481,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AC41">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8511,7 +8523,7 @@
         <v>46</v>
       </c>
       <c r="AL41">
-        <v>0.001088227593726355</v>
+        <v>0.01996952148735142</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8529,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AU41">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8559,7 +8571,7 @@
         <v>46</v>
       </c>
       <c r="BD41">
-        <v>0.00126845428073575</v>
+        <v>0.02069453452037026</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -8577,13 +8589,13 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="BM41">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8609,7 +8621,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0008933840077126575</v>
+        <v>0.0008995973531776559</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8627,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8657,7 +8669,7 @@
         <v>47</v>
       </c>
       <c r="T42">
-        <v>0.0009512123158273974</v>
+        <v>0.0183613417903616</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8675,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AC42">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8705,7 +8717,7 @@
         <v>47</v>
       </c>
       <c r="AL42">
-        <v>0.001035730612302786</v>
+        <v>0.01996952148735142</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8723,13 +8735,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AU42">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8753,7 +8765,7 @@
         <v>47</v>
       </c>
       <c r="BD42">
-        <v>0.001170959886663409</v>
+        <v>0.02069453452037026</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8771,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="BM42">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8799,11 +8811,35 @@
       </c>
     </row>
     <row r="43" spans="1:71">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.0008841959937509971</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8823,11 +8859,35 @@
       <c r="Q43">
         <v>0</v>
       </c>
+      <c r="S43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T43">
+        <v>0.01802131694239194</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>6</v>
+      </c>
       <c r="AB43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AC43">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8847,11 +8907,35 @@
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AK43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL43">
+        <v>0.01959971553388195</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>6</v>
+      </c>
       <c r="AT43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AU43">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8871,11 +8955,35 @@
       <c r="BA43">
         <v>0</v>
       </c>
+      <c r="BC43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD43">
+        <v>0.02031130239962266</v>
+      </c>
+      <c r="BE43">
+        <v>1</v>
+      </c>
+      <c r="BF43">
+        <v>1</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>1</v>
+      </c>
+      <c r="BI43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>6</v>
+      </c>
       <c r="BL43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="BM43">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN43">
         <v>1</v>
@@ -8897,11 +9005,35 @@
       </c>
     </row>
     <row r="44" spans="1:71">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.0008790622072754442</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K44">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -8921,11 +9053,35 @@
       <c r="Q44">
         <v>0</v>
       </c>
+      <c r="S44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T44">
+        <v>0.01790797532640205</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>7</v>
+      </c>
       <c r="AB44" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AC44">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -8945,11 +9101,35 @@
       <c r="AI44">
         <v>0</v>
       </c>
+      <c r="AK44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL44">
+        <v>0.01947644688272545</v>
+      </c>
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>7</v>
+      </c>
       <c r="AT44" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AU44">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -8969,11 +9149,35 @@
       <c r="BA44">
         <v>0</v>
       </c>
+      <c r="BC44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD44">
+        <v>0.02018355835937346</v>
+      </c>
+      <c r="BE44">
+        <v>1</v>
+      </c>
+      <c r="BF44">
+        <v>1</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>1</v>
+      </c>
+      <c r="BI44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>7</v>
+      </c>
       <c r="BL44" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="BM44">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -8995,11 +9199,35 @@
       </c>
     </row>
     <row r="45" spans="1:71">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.0008790622072754442</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9019,11 +9247,35 @@
       <c r="Q45">
         <v>0</v>
       </c>
+      <c r="S45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>0.01790797532640205</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
       <c r="AB45" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AC45">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9043,11 +9295,35 @@
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AK45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL45">
+        <v>0.01947644688272545</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>7</v>
+      </c>
       <c r="AT45" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AU45">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9067,11 +9343,35 @@
       <c r="BA45">
         <v>0</v>
       </c>
+      <c r="BC45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD45">
+        <v>0.02018355835937346</v>
+      </c>
+      <c r="BE45">
+        <v>1</v>
+      </c>
+      <c r="BF45">
+        <v>1</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>1</v>
+      </c>
+      <c r="BI45" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>7</v>
+      </c>
       <c r="BL45" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="BM45">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9093,11 +9393,35 @@
       </c>
     </row>
     <row r="46" spans="1:71">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.0007917878371910446</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>24</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9117,11 +9441,35 @@
       <c r="Q46">
         <v>0</v>
       </c>
+      <c r="S46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T46">
+        <v>0.01598116785457399</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>24</v>
+      </c>
       <c r="AB46" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AC46">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9141,11 +9489,35 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AK46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL46">
+        <v>0.01738087981306512</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>24</v>
+      </c>
       <c r="AT46" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AU46">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9165,11 +9537,35 @@
       <c r="BA46">
         <v>0</v>
       </c>
+      <c r="BC46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD46">
+        <v>0.01801190967513708</v>
+      </c>
+      <c r="BE46">
+        <v>1</v>
+      </c>
+      <c r="BF46">
+        <v>1</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>1</v>
+      </c>
+      <c r="BI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>24</v>
+      </c>
       <c r="BL46" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="BM46">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9191,11 +9587,35 @@
       </c>
     </row>
     <row r="47" spans="1:71">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.0003451484138179413</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>111</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9215,11 +9635,35 @@
       <c r="Q47">
         <v>0</v>
       </c>
+      <c r="S47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47">
+        <v>0.006120447263453867</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>111</v>
+      </c>
       <c r="AB47" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AC47">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -9239,11 +9683,35 @@
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AK47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL47">
+        <v>0.006656507162450475</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>111</v>
+      </c>
       <c r="AT47" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AU47">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV47">
         <v>1</v>
@@ -9263,11 +9731,35 @@
       <c r="BA47">
         <v>0</v>
       </c>
+      <c r="BC47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD47">
+        <v>0.006898178173456754</v>
+      </c>
+      <c r="BE47">
+        <v>1</v>
+      </c>
+      <c r="BF47">
+        <v>2</v>
+      </c>
+      <c r="BG47">
+        <v>0.5</v>
+      </c>
+      <c r="BH47">
+        <v>0.5</v>
+      </c>
+      <c r="BI47" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ47">
+        <v>111</v>
+      </c>
       <c r="BL47" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="BM47">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN47">
         <v>1</v>
@@ -9289,11 +9781,35 @@
       </c>
     </row>
     <row r="48" spans="1:71">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>6.792394413808386E-05</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>165</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9313,11 +9829,35 @@
       <c r="Q48">
         <v>0</v>
       </c>
+      <c r="S48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>165</v>
+      </c>
       <c r="AB48" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AC48">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -9337,11 +9877,35 @@
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AK48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>165</v>
+      </c>
       <c r="AT48" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU48">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV48">
         <v>1</v>
@@ -9361,11 +9925,35 @@
       <c r="BA48">
         <v>0</v>
       </c>
+      <c r="BC48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>1</v>
+      </c>
+      <c r="BF48">
+        <v>1</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>1</v>
+      </c>
+      <c r="BI48" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>165</v>
+      </c>
       <c r="BL48" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="BM48">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN48">
         <v>1</v>
@@ -9388,10 +9976,10 @@
     </row>
     <row r="49" spans="10:71">
       <c r="J49" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K49">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -9412,10 +10000,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AC49">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -9436,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AU49">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV49">
         <v>1</v>
@@ -9460,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="BM49">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN49">
         <v>1</v>
@@ -9486,10 +10074,10 @@
     </row>
     <row r="50" spans="10:71">
       <c r="J50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K50">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -9510,10 +10098,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AC50">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -9534,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AU50">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV50">
         <v>1</v>
@@ -9558,10 +10146,10 @@
         <v>0</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="BM50">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN50">
         <v>1</v>
@@ -9584,10 +10172,10 @@
     </row>
     <row r="51" spans="10:71">
       <c r="J51" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K51">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -9608,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AC51">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -9632,10 +10220,10 @@
         <v>0</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AU51">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV51">
         <v>1</v>
@@ -9656,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="BL51" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="BM51">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN51">
         <v>1</v>
@@ -9682,10 +10270,10 @@
     </row>
     <row r="52" spans="10:71">
       <c r="J52" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K52">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -9706,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AC52">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -9730,10 +10318,10 @@
         <v>0</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AU52">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV52">
         <v>1</v>
@@ -9754,10 +10342,10 @@
         <v>0</v>
       </c>
       <c r="BL52" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BM52">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN52">
         <v>1</v>
@@ -9780,10 +10368,10 @@
     </row>
     <row r="53" spans="10:71">
       <c r="J53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K53">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -9804,10 +10392,10 @@
         <v>0</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC53">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -9828,10 +10416,10 @@
         <v>0</v>
       </c>
       <c r="AT53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AU53">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV53">
         <v>1</v>
@@ -9852,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="BL53" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="BM53">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN53">
         <v>1</v>
@@ -9878,10 +10466,10 @@
     </row>
     <row r="54" spans="10:71">
       <c r="J54" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K54">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -9902,10 +10490,10 @@
         <v>0</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AC54">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -9926,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AU54">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV54">
         <v>1</v>
@@ -9950,10 +10538,10 @@
         <v>0</v>
       </c>
       <c r="BL54" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="BM54">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN54">
         <v>1</v>
@@ -9976,10 +10564,10 @@
     </row>
     <row r="55" spans="10:71">
       <c r="J55" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K55">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -10000,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AC55">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -10024,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AU55">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV55">
         <v>1</v>
@@ -10048,10 +10636,10 @@
         <v>0</v>
       </c>
       <c r="BL55" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BM55">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN55">
         <v>1</v>
@@ -10074,10 +10662,10 @@
     </row>
     <row r="56" spans="10:71">
       <c r="J56" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K56">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -10098,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AC56">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -10122,10 +10710,10 @@
         <v>0</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AU56">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV56">
         <v>1</v>
@@ -10146,10 +10734,10 @@
         <v>0</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="BM56">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN56">
         <v>1</v>
@@ -10172,10 +10760,10 @@
     </row>
     <row r="57" spans="10:71">
       <c r="J57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K57">
-        <v>0.0008957087494325371</v>
+        <v>0.0008964778443144843</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -10196,10 +10784,10 @@
         <v>0</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AC57">
-        <v>0.01011882250903743</v>
+        <v>0.009814868075729581</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -10220,10 +10808,10 @@
         <v>0</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AU57">
-        <v>0.01062774716677119</v>
+        <v>0.01048660968153779</v>
       </c>
       <c r="AV57">
         <v>1</v>
@@ -10244,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="BL57" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="BM57">
-        <v>0.01084594524129198</v>
+        <v>0.01078177689390564</v>
       </c>
       <c r="BN57">
         <v>1</v>
@@ -10270,10 +10858,10 @@
     </row>
     <row r="58" spans="10:71">
       <c r="J58" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K58">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -10294,10 +10882,10 @@
         <v>1</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AC58">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -10318,10 +10906,10 @@
         <v>1</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AU58">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV58">
         <v>1</v>
@@ -10342,10 +10930,10 @@
         <v>1</v>
       </c>
       <c r="BL58" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="BM58">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN58">
         <v>1</v>
@@ -10368,10 +10956,10 @@
     </row>
     <row r="59" spans="10:71">
       <c r="J59" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K59">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -10392,10 +10980,10 @@
         <v>1</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AC59">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD59">
         <v>1</v>
@@ -10416,10 +11004,10 @@
         <v>1</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AU59">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV59">
         <v>1</v>
@@ -10440,10 +11028,10 @@
         <v>1</v>
       </c>
       <c r="BL59" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="BM59">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN59">
         <v>1</v>
@@ -10466,10 +11054,10 @@
     </row>
     <row r="60" spans="10:71">
       <c r="J60" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K60">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -10490,10 +11078,10 @@
         <v>1</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC60">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -10514,10 +11102,10 @@
         <v>1</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AU60">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV60">
         <v>1</v>
@@ -10538,10 +11126,10 @@
         <v>1</v>
       </c>
       <c r="BL60" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="BM60">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN60">
         <v>1</v>
@@ -10564,10 +11152,10 @@
     </row>
     <row r="61" spans="10:71">
       <c r="J61" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K61">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -10588,10 +11176,10 @@
         <v>1</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC61">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -10612,10 +11200,10 @@
         <v>1</v>
       </c>
       <c r="AT61" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AU61">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV61">
         <v>1</v>
@@ -10636,10 +11224,10 @@
         <v>1</v>
       </c>
       <c r="BL61" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="BM61">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN61">
         <v>1</v>
@@ -10662,10 +11250,10 @@
     </row>
     <row r="62" spans="10:71">
       <c r="J62" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K62">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -10686,10 +11274,10 @@
         <v>1</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AC62">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -10710,10 +11298,10 @@
         <v>1</v>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AU62">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV62">
         <v>1</v>
@@ -10734,10 +11322,10 @@
         <v>1</v>
       </c>
       <c r="BL62" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="BM62">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN62">
         <v>1</v>
@@ -10760,10 +11348,10 @@
     </row>
     <row r="63" spans="10:71">
       <c r="J63" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K63">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -10784,10 +11372,10 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AC63">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -10808,10 +11396,10 @@
         <v>1</v>
       </c>
       <c r="AT63" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AU63">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV63">
         <v>1</v>
@@ -10832,10 +11420,10 @@
         <v>1</v>
       </c>
       <c r="BL63" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BM63">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN63">
         <v>1</v>
@@ -10858,10 +11446,10 @@
     </row>
     <row r="64" spans="10:71">
       <c r="J64" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K64">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -10882,10 +11470,10 @@
         <v>1</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AC64">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -10906,10 +11494,10 @@
         <v>1</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AU64">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV64">
         <v>1</v>
@@ -10930,10 +11518,10 @@
         <v>1</v>
       </c>
       <c r="BL64" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BM64">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN64">
         <v>1</v>
@@ -10956,10 +11544,10 @@
     </row>
     <row r="65" spans="10:71">
       <c r="J65" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K65">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -10980,10 +11568,10 @@
         <v>1</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AC65">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -11004,10 +11592,10 @@
         <v>1</v>
       </c>
       <c r="AT65" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AU65">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV65">
         <v>1</v>
@@ -11028,10 +11616,10 @@
         <v>1</v>
       </c>
       <c r="BL65" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BM65">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN65">
         <v>1</v>
@@ -11054,10 +11642,10 @@
     </row>
     <row r="66" spans="10:71">
       <c r="J66" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K66">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -11078,10 +11666,10 @@
         <v>1</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AC66">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -11102,10 +11690,10 @@
         <v>1</v>
       </c>
       <c r="AT66" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AU66">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV66">
         <v>1</v>
@@ -11126,10 +11714,10 @@
         <v>1</v>
       </c>
       <c r="BL66" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="BM66">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN66">
         <v>1</v>
@@ -11152,10 +11740,10 @@
     </row>
     <row r="67" spans="10:71">
       <c r="J67" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K67">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -11176,10 +11764,10 @@
         <v>1</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AC67">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -11200,10 +11788,10 @@
         <v>1</v>
       </c>
       <c r="AT67" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AU67">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV67">
         <v>1</v>
@@ -11224,10 +11812,10 @@
         <v>1</v>
       </c>
       <c r="BL67" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BM67">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN67">
         <v>1</v>
@@ -11250,10 +11838,10 @@
     </row>
     <row r="68" spans="10:71">
       <c r="J68" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K68">
-        <v>0.0008905774655339928</v>
+        <v>0.0008913440578389314</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -11274,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AC68">
-        <v>0.01005437141025376</v>
+        <v>0.009726445840813102</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -11298,10 +11886,10 @@
         <v>1</v>
       </c>
       <c r="AT68" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AU68">
-        <v>0.010560054509658</v>
+        <v>0.01039213572044285</v>
       </c>
       <c r="AV68">
         <v>1</v>
@@ -11322,10 +11910,10 @@
         <v>1</v>
       </c>
       <c r="BL68" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="BM68">
-        <v>0.01077686278752579</v>
+        <v>0.01068464376873532</v>
       </c>
       <c r="BN68">
         <v>1</v>
@@ -11348,10 +11936,10 @@
     </row>
     <row r="69" spans="10:71">
       <c r="J69" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K69">
-        <v>0.0008905774655339928</v>
+        <v>0.0008862102713633785</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -11369,13 +11957,13 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AC69">
-        <v>0.01005437141025376</v>
+        <v>0.009638023605896617</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -11393,13 +11981,13 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT69" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AU69">
-        <v>0.010560054509658</v>
+        <v>0.01029766175934792</v>
       </c>
       <c r="AV69">
         <v>1</v>
@@ -11417,13 +12005,13 @@
         <v>0</v>
       </c>
       <c r="BA69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL69" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="BM69">
-        <v>0.01077686278752579</v>
+        <v>0.010587510643565</v>
       </c>
       <c r="BN69">
         <v>1</v>
@@ -11441,15 +12029,15 @@
         <v>0</v>
       </c>
       <c r="BS69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="10:71">
       <c r="J70" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K70">
-        <v>0.0008905774655339928</v>
+        <v>0.0008862102713633785</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -11467,13 +12055,13 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AC70">
-        <v>0.01005437141025376</v>
+        <v>0.009638023605896617</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -11491,13 +12079,13 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT70" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AU70">
-        <v>0.010560054509658</v>
+        <v>0.01029766175934792</v>
       </c>
       <c r="AV70">
         <v>1</v>
@@ -11515,13 +12103,13 @@
         <v>0</v>
       </c>
       <c r="BA70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL70" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="BM70">
-        <v>0.01077686278752579</v>
+        <v>0.010587510643565</v>
       </c>
       <c r="BN70">
         <v>1</v>
@@ -11539,15 +12127,15 @@
         <v>0</v>
       </c>
       <c r="BS70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="10:71">
       <c r="J71" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K71">
-        <v>0.0008905774655339928</v>
+        <v>0.0008862102713633785</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -11565,13 +12153,13 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AC71">
-        <v>0.01005437141025376</v>
+        <v>0.009638023605896617</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -11589,13 +12177,13 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT71" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AU71">
-        <v>0.010560054509658</v>
+        <v>0.01029766175934792</v>
       </c>
       <c r="AV71">
         <v>1</v>
@@ -11613,13 +12201,13 @@
         <v>0</v>
       </c>
       <c r="BA71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL71" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="BM71">
-        <v>0.01077686278752579</v>
+        <v>0.010587510643565</v>
       </c>
       <c r="BN71">
         <v>1</v>
@@ -11637,15 +12225,15 @@
         <v>0</v>
       </c>
       <c r="BS71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="10:71">
       <c r="J72" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K72">
-        <v>0.0008854461816354486</v>
+        <v>0.0008810764848878256</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -11663,13 +12251,13 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AC72">
-        <v>0.009989920311470077</v>
+        <v>0.009549601370980135</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -11687,13 +12275,13 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT72" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AU72">
-        <v>0.0104923618525448</v>
+        <v>0.01020318779825298</v>
       </c>
       <c r="AV72">
         <v>1</v>
@@ -11711,13 +12299,13 @@
         <v>0</v>
       </c>
       <c r="BA72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL72" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BM72">
-        <v>0.0107077803337596</v>
+        <v>0.01049037751839467</v>
       </c>
       <c r="BN72">
         <v>1</v>
@@ -11735,15 +12323,15 @@
         <v>0</v>
       </c>
       <c r="BS72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="10:71">
       <c r="J73" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K73">
-        <v>0.0008854461816354486</v>
+        <v>0.0008810764848878256</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -11761,13 +12349,13 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AC73">
-        <v>0.009989920311470077</v>
+        <v>0.009549601370980135</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -11785,13 +12373,13 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT73" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AU73">
-        <v>0.0104923618525448</v>
+        <v>0.01020318779825298</v>
       </c>
       <c r="AV73">
         <v>1</v>
@@ -11809,13 +12397,13 @@
         <v>0</v>
       </c>
       <c r="BA73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL73" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BM73">
-        <v>0.0107077803337596</v>
+        <v>0.01049037751839467</v>
       </c>
       <c r="BN73">
         <v>1</v>
@@ -11833,15 +12421,15 @@
         <v>0</v>
       </c>
       <c r="BS73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="10:71">
       <c r="J74" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K74">
-        <v>0.0008854461816354486</v>
+        <v>0.0008810764848878256</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -11859,13 +12447,13 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AC74">
-        <v>0.009989920311470077</v>
+        <v>0.009549601370980135</v>
       </c>
       <c r="AD74">
         <v>1</v>
@@ -11883,13 +12471,13 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT74" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AU74">
-        <v>0.0104923618525448</v>
+        <v>0.01020318779825298</v>
       </c>
       <c r="AV74">
         <v>1</v>
@@ -11907,13 +12495,13 @@
         <v>0</v>
       </c>
       <c r="BA74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL74" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BM74">
-        <v>0.0107077803337596</v>
+        <v>0.01049037751839467</v>
       </c>
       <c r="BN74">
         <v>1</v>
@@ -11931,15 +12519,15 @@
         <v>0</v>
       </c>
       <c r="BS74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="10:71">
       <c r="J75" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K75">
-        <v>0.0008854461816354486</v>
+        <v>0.0008759426984122727</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -11957,13 +12545,13 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AC75">
-        <v>0.009989920311470077</v>
+        <v>0.009461179136063654</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -11981,13 +12569,13 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AU75">
-        <v>0.0104923618525448</v>
+        <v>0.01010871383715805</v>
       </c>
       <c r="AV75">
         <v>1</v>
@@ -12005,13 +12593,13 @@
         <v>0</v>
       </c>
       <c r="BA75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL75" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BM75">
-        <v>0.0107077803337596</v>
+        <v>0.01039324439322435</v>
       </c>
       <c r="BN75">
         <v>1</v>
@@ -12029,15 +12617,15 @@
         <v>0</v>
       </c>
       <c r="BS75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="10:71">
       <c r="J76" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K76">
-        <v>0.0008854461816354486</v>
+        <v>0.0008759426984122727</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -12055,13 +12643,13 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AC76">
-        <v>0.009989920311470077</v>
+        <v>0.009461179136063654</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -12079,13 +12667,13 @@
         <v>0</v>
       </c>
       <c r="AI76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT76" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AU76">
-        <v>0.0104923618525448</v>
+        <v>0.01010871383715805</v>
       </c>
       <c r="AV76">
         <v>1</v>
@@ -12103,13 +12691,13 @@
         <v>0</v>
       </c>
       <c r="BA76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BM76">
-        <v>0.0107077803337596</v>
+        <v>0.01039324439322435</v>
       </c>
       <c r="BN76">
         <v>1</v>
@@ -12127,15 +12715,15 @@
         <v>0</v>
       </c>
       <c r="BS76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="10:71">
       <c r="J77" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K77">
-        <v>0.0008854461816354486</v>
+        <v>0.0008759426984122727</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -12153,13 +12741,13 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AC77">
-        <v>0.009989920311470077</v>
+        <v>0.009461179136063654</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -12177,13 +12765,13 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT77" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AU77">
-        <v>0.0104923618525448</v>
+        <v>0.01010871383715805</v>
       </c>
       <c r="AV77">
         <v>1</v>
@@ -12201,13 +12789,13 @@
         <v>0</v>
       </c>
       <c r="BA77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL77" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BM77">
-        <v>0.0107077803337596</v>
+        <v>0.01039324439322435</v>
       </c>
       <c r="BN77">
         <v>1</v>
@@ -12225,15 +12813,15 @@
         <v>0</v>
       </c>
       <c r="BS77">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="10:71">
       <c r="J78" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K78">
-        <v>0.0008803148977369042</v>
+        <v>0.0008759426984122727</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -12251,13 +12839,13 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AC78">
-        <v>0.009925469212686399</v>
+        <v>0.009461179136063654</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -12275,13 +12863,13 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT78" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AU78">
-        <v>0.01042466919543161</v>
+        <v>0.01010871383715805</v>
       </c>
       <c r="AV78">
         <v>1</v>
@@ -12299,13 +12887,13 @@
         <v>0</v>
       </c>
       <c r="BA78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="BM78">
-        <v>0.01063869787999341</v>
+        <v>0.01039324439322435</v>
       </c>
       <c r="BN78">
         <v>1</v>
@@ -12323,15 +12911,15 @@
         <v>0</v>
       </c>
       <c r="BS78">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="10:71">
       <c r="J79" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K79">
-        <v>0.0008803148977369042</v>
+        <v>0.0008708089119367198</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -12349,13 +12937,13 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AC79">
-        <v>0.009925469212686399</v>
+        <v>0.00937275690114717</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -12373,13 +12961,13 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT79" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AU79">
-        <v>0.01042466919543161</v>
+        <v>0.01001423987606311</v>
       </c>
       <c r="AV79">
         <v>1</v>
@@ -12397,13 +12985,13 @@
         <v>0</v>
       </c>
       <c r="BA79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL79" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BM79">
-        <v>0.01063869787999341</v>
+        <v>0.01029611126805403</v>
       </c>
       <c r="BN79">
         <v>1</v>
@@ -12421,15 +13009,15 @@
         <v>0</v>
       </c>
       <c r="BS79">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="10:71">
       <c r="J80" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K80">
-        <v>0.0008803148977369042</v>
+        <v>0.0008708089119367198</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -12447,13 +13035,13 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AC80">
-        <v>0.009925469212686399</v>
+        <v>0.00937275690114717</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -12471,13 +13059,13 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT80" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AU80">
-        <v>0.01042466919543161</v>
+        <v>0.01001423987606311</v>
       </c>
       <c r="AV80">
         <v>1</v>
@@ -12495,13 +13083,13 @@
         <v>0</v>
       </c>
       <c r="BA80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL80" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="BM80">
-        <v>0.01063869787999341</v>
+        <v>0.01029611126805403</v>
       </c>
       <c r="BN80">
         <v>1</v>
@@ -12519,15 +13107,15 @@
         <v>0</v>
       </c>
       <c r="BS80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="10:71">
       <c r="J81" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K81">
-        <v>0.00087518361383836</v>
+        <v>0.0008708089119367198</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -12545,13 +13133,13 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AC81">
-        <v>0.009861018113902723</v>
+        <v>0.00937275690114717</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -12569,13 +13157,13 @@
         <v>0</v>
       </c>
       <c r="AI81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT81" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AU81">
-        <v>0.01035697653831842</v>
+        <v>0.01001423987606311</v>
       </c>
       <c r="AV81">
         <v>1</v>
@@ -12593,13 +13181,13 @@
         <v>0</v>
       </c>
       <c r="BA81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL81" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="BM81">
-        <v>0.01056961542622722</v>
+        <v>0.01029611126805403</v>
       </c>
       <c r="BN81">
         <v>1</v>
@@ -12617,15 +13205,15 @@
         <v>0</v>
       </c>
       <c r="BS81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="10:71">
       <c r="J82" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K82">
-        <v>0.0008700523299398157</v>
+        <v>0.0008708089119367198</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -12646,10 +13234,10 @@
         <v>5</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AC82">
-        <v>0.009796567015119044</v>
+        <v>0.00937275690114717</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -12670,10 +13258,10 @@
         <v>5</v>
       </c>
       <c r="AT82" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AU82">
-        <v>0.01028928388120523</v>
+        <v>0.01001423987606311</v>
       </c>
       <c r="AV82">
         <v>1</v>
@@ -12694,10 +13282,10 @@
         <v>5</v>
       </c>
       <c r="BL82" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="BM82">
-        <v>0.01050053297246103</v>
+        <v>0.01029611126805403</v>
       </c>
       <c r="BN82">
         <v>1</v>
@@ -12720,10 +13308,10 @@
     </row>
     <row r="83" spans="10:71">
       <c r="J83" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K83">
-        <v>0.0008649210460412715</v>
+        <v>0.0008656751254611668</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -12744,10 +13332,10 @@
         <v>6</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC83">
-        <v>0.009732115916335365</v>
+        <v>0.009284334666230685</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -12768,10 +13356,10 @@
         <v>6</v>
       </c>
       <c r="AT83" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AU83">
-        <v>0.01022159122409204</v>
+        <v>0.009919765914968178</v>
       </c>
       <c r="AV83">
         <v>1</v>
@@ -12792,10 +13380,10 @@
         <v>6</v>
       </c>
       <c r="BL83" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BM83">
-        <v>0.01043145051869484</v>
+        <v>0.01019897814288371</v>
       </c>
       <c r="BN83">
         <v>1</v>
@@ -12818,10 +13406,10 @@
     </row>
     <row r="84" spans="10:71">
       <c r="J84" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K84">
-        <v>0.000854658478244183</v>
+        <v>0.0008554075525100609</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -12842,10 +13430,10 @@
         <v>8</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AC84">
-        <v>0.00960321371876801</v>
+        <v>0.00910749019639772</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -12866,10 +13454,10 @@
         <v>8</v>
       </c>
       <c r="AT84" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AU84">
-        <v>0.01008620590986565</v>
+        <v>0.009730817992778308</v>
       </c>
       <c r="AV84">
         <v>1</v>
@@ -12890,10 +13478,10 @@
         <v>8</v>
       </c>
       <c r="BL84" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="BM84">
-        <v>0.01029328561116245</v>
+        <v>0.01000471189254307</v>
       </c>
       <c r="BN84">
         <v>1</v>
@@ -12916,10 +13504,10 @@
     </row>
     <row r="85" spans="10:71">
       <c r="J85" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K85">
-        <v>0.0008443959104470944</v>
+        <v>0.0008554075525100609</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -12937,13 +13525,13 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AC85">
-        <v>0.009474311521200655</v>
+        <v>0.00910749019639772</v>
       </c>
       <c r="AD85">
         <v>1</v>
@@ -12961,13 +13549,13 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT85" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AU85">
-        <v>0.009950820595639266</v>
+        <v>0.009730817992778308</v>
       </c>
       <c r="AV85">
         <v>1</v>
@@ -12985,13 +13573,13 @@
         <v>0</v>
       </c>
       <c r="BA85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BL85" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="BM85">
-        <v>0.01015512070363007</v>
+        <v>0.01000471189254307</v>
       </c>
       <c r="BN85">
         <v>1</v>
@@ -13009,15 +13597,15 @@
         <v>0</v>
       </c>
       <c r="BS85">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="10:71">
       <c r="J86" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K86">
-        <v>0.0008341333426500059</v>
+        <v>0.0008348724066078493</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -13038,10 +13626,10 @@
         <v>12</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AC86">
-        <v>0.009345409323633298</v>
+        <v>0.008753801256731791</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -13062,10 +13650,10 @@
         <v>12</v>
       </c>
       <c r="AT86" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AU86">
-        <v>0.009815435281412882</v>
+        <v>0.009352922148398567</v>
       </c>
       <c r="AV86">
         <v>1</v>
@@ -13086,10 +13674,10 @@
         <v>12</v>
       </c>
       <c r="BL86" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BM86">
-        <v>0.01001695579609769</v>
+        <v>0.009616179391861785</v>
       </c>
       <c r="BN86">
         <v>1</v>
@@ -13112,10 +13700,10 @@
     </row>
     <row r="87" spans="10:71">
       <c r="J87" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K87">
-        <v>0.000818739490954373</v>
+        <v>0.0008194710471811906</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -13136,10 +13724,10 @@
         <v>15</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AC87">
-        <v>0.009152056027282265</v>
+        <v>0.008488534551982342</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -13160,10 +13748,10 @@
         <v>15</v>
       </c>
       <c r="AT87" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AU87">
-        <v>0.009612357310073304</v>
+        <v>0.009069500265113764</v>
       </c>
       <c r="AV87">
         <v>1</v>
@@ -13184,10 +13772,10 @@
         <v>15</v>
       </c>
       <c r="BL87" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BM87">
-        <v>0.009809708434799117</v>
+        <v>0.009324780016350823</v>
       </c>
       <c r="BN87">
         <v>1</v>
@@ -13210,10 +13798,10 @@
     </row>
     <row r="88" spans="10:71">
       <c r="J88" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K88">
-        <v>0.0008136082070558288</v>
+        <v>0.0008143372607056377</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -13234,10 +13822,10 @@
         <v>16</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AC88">
-        <v>0.009087604928498586</v>
+        <v>0.008400112317065859</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -13258,10 +13846,10 @@
         <v>16</v>
       </c>
       <c r="AT88" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AU88">
-        <v>0.009544664652960113</v>
+        <v>0.008975026304018828</v>
       </c>
       <c r="AV88">
         <v>1</v>
@@ -13282,10 +13870,10 @@
         <v>16</v>
       </c>
       <c r="BL88" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="BM88">
-        <v>0.009740625981032926</v>
+        <v>0.009227646891180502</v>
       </c>
       <c r="BN88">
         <v>1</v>
@@ -13308,10 +13896,10 @@
     </row>
     <row r="89" spans="10:71">
       <c r="J89" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K89">
-        <v>0.0008033456392587404</v>
+        <v>0.0007321966770967911</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -13329,13 +13917,13 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AC89">
-        <v>0.008958702730931231</v>
+        <v>0.006985356558402136</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -13353,13 +13941,13 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AU89">
-        <v>0.009409279338733728</v>
+        <v>0.007463442926499866</v>
       </c>
       <c r="AV89">
         <v>1</v>
@@ -13377,13 +13965,13 @@
         <v>0</v>
       </c>
       <c r="BA89">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="BL89" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="BM89">
-        <v>0.009602461073500544</v>
+        <v>0.007673516888455364</v>
       </c>
       <c r="BN89">
         <v>1</v>
@@ -13401,21 +13989,21 @@
         <v>0</v>
       </c>
       <c r="BS89">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="10:71">
       <c r="J90" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K90">
-        <v>0.0007765562533596648</v>
+        <v>0.0007065277447190264</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -13427,13 +14015,13 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AC90">
-        <v>0.008056387347959741</v>
+        <v>0.006543245383819722</v>
       </c>
       <c r="AD90">
         <v>1</v>
@@ -13451,13 +14039,13 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AT90" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AU90">
-        <v>0.008461582139149035</v>
+        <v>0.006991073121025192</v>
       </c>
       <c r="AV90">
         <v>1</v>
@@ -13475,13 +14063,13 @@
         <v>0</v>
       </c>
       <c r="BA90">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BL90" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BM90">
-        <v>0.008635306720773872</v>
+        <v>0.007187851262603758</v>
       </c>
       <c r="BN90">
         <v>1</v>
@@ -13499,15 +14087,15 @@
         <v>0</v>
       </c>
       <c r="BS90">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="10:71">
       <c r="J91" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K91">
-        <v>0.0007315076646791207</v>
+        <v>0.0007013939582434735</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -13525,13 +14113,13 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AC91">
-        <v>0.007540778557690317</v>
+        <v>0.00645482314890324</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -13549,13 +14137,13 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AT91" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AU91">
-        <v>0.007920040882243497</v>
+        <v>0.006896599159930256</v>
       </c>
       <c r="AV91">
         <v>1</v>
@@ -13573,13 +14161,13 @@
         <v>0</v>
       </c>
       <c r="BA91">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BL91" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="BM91">
-        <v>0.008082647090644343</v>
+        <v>0.007090718137433438</v>
       </c>
       <c r="BN91">
         <v>1</v>
@@ -13597,203 +14185,105 @@
         <v>0</v>
       </c>
       <c r="BS91">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="10:71">
       <c r="J92" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>0.0006904573934907667</v>
+        <v>0.0003266275455281109</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="AC92">
-        <v>0.004379117082825787</v>
+        <v>0</v>
       </c>
       <c r="AD92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE92">
         <v>2</v>
       </c>
       <c r="AF92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI92">
         <v>111</v>
       </c>
       <c r="AT92" s="1" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="AU92">
-        <v>0.003962720450826887</v>
+        <v>0</v>
       </c>
       <c r="AV92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW92">
         <v>2</v>
       </c>
       <c r="AX92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AY92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA92">
         <v>111</v>
       </c>
       <c r="BL92" s="1" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="BM92">
-        <v>0.003784193154186008</v>
+        <v>0</v>
       </c>
       <c r="BN92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO92">
         <v>2</v>
       </c>
       <c r="BP92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BQ92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BR92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS92">
         <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="10:71">
-      <c r="J93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K93">
-        <v>9.009717736108823E-05</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>157</v>
-      </c>
-      <c r="AB93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93">
-        <v>1</v>
-      </c>
-      <c r="AE93">
-        <v>1</v>
-      </c>
-      <c r="AF93">
-        <v>1</v>
-      </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI93">
-        <v>157</v>
-      </c>
-      <c r="AT93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU93">
-        <v>0</v>
-      </c>
-      <c r="AV93">
-        <v>1</v>
-      </c>
-      <c r="AW93">
-        <v>1</v>
-      </c>
-      <c r="AX93">
-        <v>1</v>
-      </c>
-      <c r="AY93">
-        <v>0</v>
-      </c>
-      <c r="AZ93" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA93">
-        <v>157</v>
-      </c>
-      <c r="BL93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM93">
-        <v>0</v>
-      </c>
-      <c r="BN93">
-        <v>1</v>
-      </c>
-      <c r="BO93">
-        <v>1</v>
-      </c>
-      <c r="BP93">
-        <v>1</v>
-      </c>
-      <c r="BQ93">
-        <v>0</v>
-      </c>
-      <c r="BR93" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS93">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
